--- a/Doc/工作时间线.xlsx
+++ b/Doc/工作时间线.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{61A76AF5-E1E2-478E-9B46-35718A4172C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="6_{61A76AF5-E1E2-478E-9B46-35718A4172C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2B16AFF3-C055-4513-8E8D-46BDFC3B0D66}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,50 @@
   </si>
   <si>
     <t>存在问题，且拧松履带后仍存在问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月18日16:00:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月18日09:39:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成开机动作，包括舵机和手部电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复底盘轮子依然不能移动的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决,通过加润滑油？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月18日22:54:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行整车驱动调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在问题，OLED无法点亮，头部电机编码器存在编码器值不准确和力矩过小，头部容易被线卡住的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,16 +453,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,6 +527,45 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/工作时间线.xlsx
+++ b/Doc/工作时间线.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="6_{61A76AF5-E1E2-478E-9B46-35718A4172C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2B16AFF3-C055-4513-8E8D-46BDFC3B0D66}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="6_{61A76AF5-E1E2-478E-9B46-35718A4172C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4E8F00B0-0CA6-4A2C-AF26-BD8DCAF6C17E}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>存在问题，OLED无法点亮，头部电机编码器存在编码器值不准确和力矩过小，头部容易被线卡住的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月20日08:41:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交接车辆 进行OLED屏幕和OpenMV的维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,16 +465,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="58.5546875" customWidth="1"/>
     <col min="4" max="4" width="48" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,6 +578,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
